--- a/PartList.xlsx
+++ b/PartList.xlsx
@@ -1,26 +1,26 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="20919"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
+  <fileVersion appName="xl" lastEdited="6" lowestEdited="6" rupBuild="14420"/>
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Matt Peverill\Dropbox\KerbalKockpit\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="11_DF2C541EE48BC1E6ADA934995758E08572C149D0" xr6:coauthVersionLast="37" xr6:coauthVersionMax="37" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="15360" windowHeight="7423" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="15360" windowHeight="7425" firstSheet="1" activeTab="1"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="3" r:id="rId1"/>
     <sheet name="Control List" sheetId="1" r:id="rId2"/>
-    <sheet name="Parts List" sheetId="2" r:id="rId3"/>
+    <sheet name="Proto Parts List" sheetId="2" r:id="rId3"/>
   </sheets>
-  <calcPr calcId="179020"/>
+  <calcPr calcId="152511"/>
   <pivotCaches>
-    <pivotCache cacheId="34323" r:id="rId4"/>
+    <pivotCache cacheId="0" r:id="rId4"/>
   </pivotCaches>
+  <fileRecoveryPr repairLoad="1"/>
   <extLst>
     <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
       <x15:workbookPr chartTrackingRefBase="1"/>
@@ -30,7 +30,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="390" uniqueCount="138">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="503" uniqueCount="186">
   <si>
     <t>Row Labels</t>
   </si>
@@ -113,9 +113,6 @@
     <t>Purchased?</t>
   </si>
   <si>
-    <t>Part?</t>
-  </si>
-  <si>
     <t>Attitude Control</t>
   </si>
   <si>
@@ -233,6 +230,9 @@
     <t>timeoveride</t>
   </si>
   <si>
+    <t>19mm yellow button</t>
+  </si>
+  <si>
     <t>quicksave</t>
   </si>
   <si>
@@ -308,6 +308,9 @@
     <t>Light indicator</t>
   </si>
   <si>
+    <t>3mm led</t>
+  </si>
+  <si>
     <t>Gear Indicator</t>
   </si>
   <si>
@@ -329,7 +332,7 @@
     <t>mushroom Switch</t>
   </si>
   <si>
-    <t>https://www.aliexpress.com/item/P187-ON-OFF-Mushroom-Push-Button-Switch-3800V-electrical-industrial-switch-4-screws-with-light-Green/32848834587.html?spm=2114.search0204.3.72.475244d8vwOp5K&amp;ws_ab_test=searchweb0_0,searchweb201602_3_10152_10151_10065_10344_10068_10130_10324_10342_10547_10325_10343_10546_10340_10548_10341_10545_10084_10083_10618_10307_5711211_10313_10059_10534_100031_10103_10627_10626_10624_10623_10622_5711315_10621_5722412_10620,searchweb201603_25,ppcSwitch_5_ppcChannel&amp;algo_expid=c9d8d0c6-fda8-433f-bdc6-01368b8b9627-9&amp;algo_pvid=c9d8d0c6-fda8-433f-bdc6-01368b8b9627&amp;priceBeautifyAB=0</t>
+    <t>22 mm green button</t>
   </si>
   <si>
     <t>Arm Abort</t>
@@ -341,6 +344,9 @@
     <t>Mushroom Switch</t>
   </si>
   <si>
+    <t>22 mm red button</t>
+  </si>
+  <si>
     <t>Translation Control</t>
   </si>
   <si>
@@ -401,37 +407,169 @@
     <t>hor vel</t>
   </si>
   <si>
-    <t>Component Type:</t>
-  </si>
-  <si>
-    <t>Illuminated Square Pushbutton</t>
-  </si>
-  <si>
-    <t>https://www.adafruit.com/product/491</t>
-  </si>
-  <si>
-    <t>http://www.ebay.com/itm/10Pack-DC-12V-LED-Light-SPDT-Momentary-Square-Pushbutton-Switch-16mm-White-/322528304260?epid=567341728&amp;hash=item4b182f5c84:g:6UYAAOSwYlRZJXFq</t>
-  </si>
-  <si>
-    <t>http://www.ebay.com/itm/8x-30mm-Square-Shape-LED-Illuminated-Push-Button-5V-Switch-To-JAMMA-MAME-Games-/263016317262?var=&amp;hash=item3d3cfe814e:m:mzWRz-Bk_ZyuTouPCnoBngg</t>
-  </si>
-  <si>
-    <t>e</t>
-  </si>
-  <si>
-    <t>rotatable joystick</t>
-  </si>
-  <si>
-    <t>https://www.amazon.com/YUEQING-OMTER-ELECTRONIC-TECHNOLOGY-OM400B-M2/dp/B00CS6O4NI</t>
-  </si>
-  <si>
-    <t>toggle switch/paddle</t>
-  </si>
-  <si>
-    <t>https://www.amazon.com/Momentary-Positions-Toggle-Switch-T80-R/dp/B00TGOAK8S/ref=pd_lpo_vtph_263_lp_t_3?_encoding=UTF8&amp;psc=1&amp;refRID=WYNW6PZGDS28KJ0PDGP8</t>
-  </si>
-  <si>
-    <t>http://www.robotshop.com/en/3-axis-joystick.html?utm_source=Facebook&amp;utm_medium=Paid&amp;utm_campaign=ProdCatUS</t>
+    <t>Switches:</t>
+  </si>
+  <si>
+    <t>Price Per lot</t>
+  </si>
+  <si>
+    <t>Needed</t>
+  </si>
+  <si>
+    <t>Min Lot</t>
+  </si>
+  <si>
+    <t>Price</t>
+  </si>
+  <si>
+    <t>Measured diameter</t>
+  </si>
+  <si>
+    <t>Datasheet diameter</t>
+  </si>
+  <si>
+    <t>Other diameter/notes</t>
+  </si>
+  <si>
+    <t>Illuminated rectangle button</t>
+  </si>
+  <si>
+    <t>https://www.ebay.com/itm/10x-DC-12V-Push-Button-Momentary-Self-Reset-Square-Switch-with-LED-Lighted-White-/382028963367?hash=item58f2b35e27</t>
+  </si>
+  <si>
+    <t>mom-off-mom switch</t>
+  </si>
+  <si>
+    <t>https://www.aliexpress.com/item/12V-6-Pin-DPDT-Power-Window-Momentary-Rocker-Switch-AC-250V-10A-125V-15A-Switch/32707229587.html?spm=a2g0s.9042311.0.0.27424c4dyQbYgv</t>
+  </si>
+  <si>
+    <t>21x28.5</t>
+  </si>
+  <si>
+    <t>https://www.ebay.com/itm/4-Axis-Plastic-Joystick-Potentiometer-For-JH-D400X-R4-10K-4D-with-Button-Wire-/202458110615?hash=item2f23719a97</t>
+  </si>
+  <si>
+    <t>screws are a 32.5mm square. joy cutout is 35mm round</t>
+  </si>
+  <si>
+    <t>3mm led holder</t>
+  </si>
+  <si>
+    <t>5mm led holder</t>
+  </si>
+  <si>
+    <t>22mm push</t>
+  </si>
+  <si>
+    <t>https://www.aliexpress.com/item/16-19-22mm-high-head-flat-head-round-head-metal-self-reset-button-switch-screw-pin/32911160248.html?spm=a2g0s.9042311.0.0.27424c4dFK9uGm</t>
+  </si>
+  <si>
+    <t>19mm pushbutton</t>
+  </si>
+  <si>
+    <t>16mm pushbutton</t>
+  </si>
+  <si>
+    <t>rotary pot</t>
+  </si>
+  <si>
+    <t>rotary selector switch</t>
+  </si>
+  <si>
+    <t>large linpot</t>
+  </si>
+  <si>
+    <t>vetco</t>
+  </si>
+  <si>
+    <t>2 mm holes  with 77.3 mm between 71mm slot X 2</t>
+  </si>
+  <si>
+    <t>resource light array</t>
+  </si>
+  <si>
+    <t>46X6.4</t>
+  </si>
+  <si>
+    <t>DPDT switch</t>
+  </si>
+  <si>
+    <t>SPST switch</t>
+  </si>
+  <si>
+    <t>SPDT switch</t>
+  </si>
+  <si>
+    <t>Slide joystick</t>
+  </si>
+  <si>
+    <t>https://www.aliexpress.com/item/Hight-quality-Replacement-Parts-Black-3D-Button-Analog-Joystick-for-Sony-for-PSP1000-PSP-1000-PSP/32821042445.html?spm=a2g0s.9042311.0.0.27424c4dFK9uGm</t>
+  </si>
+  <si>
+    <t>NA</t>
+  </si>
+  <si>
+    <t>Key switch</t>
+  </si>
+  <si>
+    <t>https://www.aliexpress.com/item/Free-Ship-2pcs-Model-airplane-B10K-RC-Plane-with-confirm-button-joystick-rocker-3D-RC-helicopter/32672519305.html?spm=a2g0s.9042311.0.0.27424c4dyQbYgv</t>
+  </si>
+  <si>
+    <t>Shielded lit toggle</t>
+  </si>
+  <si>
+    <t>https://www.sparkfun.com/products/11310</t>
+  </si>
+  <si>
+    <t>Small linpot</t>
+  </si>
+  <si>
+    <t>https://www.sparkfun.com/products/11621</t>
+  </si>
+  <si>
+    <t>Other:</t>
+  </si>
+  <si>
+    <t>Heat Shrink</t>
+  </si>
+  <si>
+    <t>Standoffs</t>
+  </si>
+  <si>
+    <t>Hinges</t>
+  </si>
+  <si>
+    <t>Headers</t>
+  </si>
+  <si>
+    <t>Trim Pots</t>
+  </si>
+  <si>
+    <t>Diodes</t>
+  </si>
+  <si>
+    <t>ULN arrays</t>
+  </si>
+  <si>
+    <t>Loose TRansistors</t>
+  </si>
+  <si>
+    <t>LED strips</t>
+  </si>
+  <si>
+    <t>MCP chip</t>
+  </si>
+  <si>
+    <t>pot handle</t>
+  </si>
+  <si>
+    <t>Stripboard</t>
+  </si>
+  <si>
+    <t>https://www.aliexpress.com/item/5-Pcs-6-5x14-5cm-Stripboard-Veroboard-Prototype-Printed-Circuit-Uncut-PCB-Platine-Single-Side-Circuit/32851727414.html?spm=a2g0s.9042311.0.0.27424c4dyQbYgv</t>
+  </si>
+  <si>
+    <t>74HC4051</t>
   </si>
   <si>
     <t>Tools/Other</t>
@@ -444,16 +582,22 @@
   </si>
   <si>
     <t>Power Source</t>
+  </si>
+  <si>
+    <t>In sketch</t>
+  </si>
+  <si>
+    <t>In panel svg</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <numFmts count="1">
     <numFmt numFmtId="8" formatCode="&quot;$&quot;#,##0.00_);[Red]\(&quot;$&quot;#,##0.00\)"/>
   </numFmts>
-  <fonts count="2">
+  <fonts count="2" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -518,7 +662,7 @@
 </file>
 
 <file path=xl/pivotCache/pivotCacheDefinition1.xml><?xml version="1.0" encoding="utf-8"?>
-<pivotCacheDefinition xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="xr" r:id="rId1" refreshedBy="Excel Services" refreshedDate="43370.126125810188" createdVersion="6" refreshedVersion="6" minRefreshableVersion="3" recordCount="65" xr:uid="{C7D614C8-440C-4DD0-AF72-D75811F72054}">
+<pivotCacheDefinition xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId1" refreshedBy="Excel Services" refreshedDate="43370.126125810188" createdVersion="6" refreshedVersion="6" minRefreshableVersion="3" recordCount="65">
   <cacheSource type="worksheet">
     <worksheetSource ref="A1:K67" sheet="Control List"/>
   </cacheSource>
@@ -580,7 +724,7 @@
 </file>
 
 <file path=xl/pivotCache/pivotCacheRecords1.xml><?xml version="1.0" encoding="utf-8"?>
-<pivotCacheRecords xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="xr" count="65">
+<pivotCacheRecords xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" count="65">
   <r>
     <s v="Attitude Control"/>
     <s v="in"/>
@@ -1430,7 +1574,7 @@
 </file>
 
 <file path=xl/pivotTables/pivotTable1.xml><?xml version="1.0" encoding="utf-8"?>
-<pivotTableDefinition xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="xr" xr:uid="{BF94E701-FD6A-4B4E-807E-A727E9E3C1C9}" name="PivotTable1" cacheId="34323" applyNumberFormats="0" applyBorderFormats="0" applyFontFormats="0" applyPatternFormats="0" applyAlignmentFormats="0" applyWidthHeightFormats="1" dataCaption="Values" updatedVersion="6" minRefreshableVersion="3" useAutoFormatting="1" itemPrintTitles="1" createdVersion="6" indent="0" outline="1" outlineData="1" multipleFieldFilters="0">
+<pivotTableDefinition xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" name="PivotTable1" cacheId="0" applyNumberFormats="0" applyBorderFormats="0" applyFontFormats="0" applyPatternFormats="0" applyAlignmentFormats="0" applyWidthHeightFormats="1" dataCaption="Values" updatedVersion="6" minRefreshableVersion="3" useAutoFormatting="1" itemPrintTitles="1" createdVersion="6" indent="0" outline="1" outlineData="1" multipleFieldFilters="0">
   <location ref="A3:B17" firstHeaderRow="1" firstDataRow="1" firstDataCol="1"/>
   <pivotFields count="11">
     <pivotField dataField="1" showAll="0"/>
@@ -1519,9 +1663,6 @@
   <extLst>
     <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{962EF5D1-5CA2-4c93-8EF4-DBF5C05439D2}">
       <x14:pivotTableDefinition xmlns:xm="http://schemas.microsoft.com/office/excel/2006/main" hideValuesRow="1"/>
-    </ext>
-    <ext xmlns:xpdl="http://schemas.microsoft.com/office/spreadsheetml/2016/pivotdefaultlayout" uri="{747A6164-185A-40DC-8AA5-F01512510D54}">
-      <xpdl:pivotTableDefinition16/>
     </ext>
   </extLst>
 </pivotTableDefinition>
@@ -1789,20 +1930,20 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{5F22F572-1CB2-4E05-AF22-3CDDD06FA309}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A3:B17"/>
   <sheetViews>
-    <sheetView workbookViewId="0" xr3:uid="{82F4FED1-8DD3-5FFC-A74A-82965C8EBF0E}">
+    <sheetView workbookViewId="0">
       <selection activeCell="B11" sqref="B11"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15"/>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
     <col min="1" max="1" width="22" bestFit="1" customWidth="1"/>
     <col min="2" max="2" width="14.28515625" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="3" spans="1:2">
+    <row r="3" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A3" s="3" t="s">
         <v>0</v>
       </c>
@@ -1810,7 +1951,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="4" spans="1:2">
+    <row r="4" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A4" s="4" t="s">
         <v>2</v>
       </c>
@@ -1818,7 +1959,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="5" spans="1:2">
+    <row r="5" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A5" s="4" t="s">
         <v>3</v>
       </c>
@@ -1826,7 +1967,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="6" spans="1:2">
+    <row r="6" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A6" s="4" t="s">
         <v>4</v>
       </c>
@@ -1834,7 +1975,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="7" spans="1:2">
+    <row r="7" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A7" s="4" t="s">
         <v>5</v>
       </c>
@@ -1842,7 +1983,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="8" spans="1:2">
+    <row r="8" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A8" s="4" t="s">
         <v>6</v>
       </c>
@@ -1850,7 +1991,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="9" spans="1:2">
+    <row r="9" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A9" s="4" t="s">
         <v>7</v>
       </c>
@@ -1858,7 +1999,7 @@
         <v>16</v>
       </c>
     </row>
-    <row r="10" spans="1:2">
+    <row r="10" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A10" s="4" t="s">
         <v>8</v>
       </c>
@@ -1866,7 +2007,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="11" spans="1:2">
+    <row r="11" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A11" s="4" t="s">
         <v>9</v>
       </c>
@@ -1874,7 +2015,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="12" spans="1:2">
+    <row r="12" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A12" s="4" t="s">
         <v>10</v>
       </c>
@@ -1882,7 +2023,7 @@
         <v>16</v>
       </c>
     </row>
-    <row r="13" spans="1:2">
+    <row r="13" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A13" s="4" t="s">
         <v>11</v>
       </c>
@@ -1890,7 +2031,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="14" spans="1:2">
+    <row r="14" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A14" s="4" t="s">
         <v>12</v>
       </c>
@@ -1898,7 +2039,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="15" spans="1:2">
+    <row r="15" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A15" s="4" t="s">
         <v>13</v>
       </c>
@@ -1906,7 +2047,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="16" spans="1:2">
+    <row r="16" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A16" s="4" t="s">
         <v>14</v>
       </c>
@@ -1914,7 +2055,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="17" spans="1:2">
+    <row r="17" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A17" s="4" t="s">
         <v>15</v>
       </c>
@@ -1928,14 +2069,14 @@
 </file>
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:L82"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <dimension ref="A1:N82"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A18" workbookViewId="0" xr3:uid="{AEA406A1-0E4B-5B11-9CD5-51D6E497D94C}">
-      <selection activeCell="L28" sqref="L28"/>
+    <sheetView tabSelected="1" topLeftCell="A31" workbookViewId="0">
+      <selection activeCell="B40" sqref="B40"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.65"/>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
     <col min="1" max="1" width="19.28515625" customWidth="1"/>
     <col min="3" max="3" width="18.140625" customWidth="1"/>
@@ -1945,7 +2086,7 @@
     <col min="7" max="9" width="12.28515625" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:12">
+    <row r="1" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A1" t="s">
         <v>16</v>
       </c>
@@ -1979,60 +2120,66 @@
       <c r="K1" t="s">
         <v>26</v>
       </c>
-      <c r="L1" t="s">
+      <c r="M1" t="s">
+        <v>184</v>
+      </c>
+      <c r="N1" t="s">
+        <v>185</v>
+      </c>
+    </row>
+    <row r="2" spans="1:14" x14ac:dyDescent="0.25">
+      <c r="A2" t="s">
         <v>27</v>
       </c>
-    </row>
-    <row r="2" spans="1:12">
-      <c r="A2" t="s">
+      <c r="B2" t="s">
         <v>28</v>
       </c>
-      <c r="B2" t="s">
+      <c r="C2" t="s">
         <v>29</v>
-      </c>
-      <c r="C2" t="s">
-        <v>30</v>
       </c>
       <c r="D2" t="s">
         <v>6</v>
       </c>
       <c r="E2" t="s">
+        <v>30</v>
+      </c>
+      <c r="F2">
+        <v>1</v>
+      </c>
+      <c r="G2">
+        <v>1</v>
+      </c>
+      <c r="H2">
+        <v>0</v>
+      </c>
+      <c r="I2">
+        <v>0</v>
+      </c>
+      <c r="J2">
+        <v>0</v>
+      </c>
+      <c r="K2" t="s">
+        <v>30</v>
+      </c>
+      <c r="M2" t="s">
+        <v>30</v>
+      </c>
+    </row>
+    <row r="3" spans="1:14" x14ac:dyDescent="0.25">
+      <c r="A3" t="s">
+        <v>27</v>
+      </c>
+      <c r="B3" t="s">
+        <v>28</v>
+      </c>
+      <c r="C3" t="s">
         <v>31</v>
-      </c>
-      <c r="F2">
-        <v>1</v>
-      </c>
-      <c r="G2">
-        <v>1</v>
-      </c>
-      <c r="H2">
-        <v>0</v>
-      </c>
-      <c r="I2">
-        <v>0</v>
-      </c>
-      <c r="J2">
-        <v>0</v>
-      </c>
-      <c r="K2" t="s">
-        <v>31</v>
-      </c>
-    </row>
-    <row r="3" spans="1:12">
-      <c r="A3" t="s">
-        <v>28</v>
-      </c>
-      <c r="B3" t="s">
-        <v>29</v>
-      </c>
-      <c r="C3" t="s">
-        <v>32</v>
       </c>
       <c r="D3" t="s">
         <v>8</v>
       </c>
       <c r="E3" t="s">
-        <v>31</v>
+        <v>30</v>
       </c>
       <c r="F3">
         <v>1</v>
@@ -2050,24 +2197,27 @@
         <v>0</v>
       </c>
       <c r="K3" t="s">
-        <v>31</v>
-      </c>
-    </row>
-    <row r="4" spans="1:12">
+        <v>30</v>
+      </c>
+      <c r="M3" t="s">
+        <v>30</v>
+      </c>
+    </row>
+    <row r="4" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A4" t="s">
+        <v>27</v>
+      </c>
+      <c r="B4" t="s">
         <v>28</v>
       </c>
-      <c r="B4" t="s">
-        <v>29</v>
-      </c>
       <c r="C4" t="s">
-        <v>33</v>
+        <v>32</v>
       </c>
       <c r="D4" t="s">
         <v>8</v>
       </c>
       <c r="E4" t="s">
-        <v>31</v>
+        <v>30</v>
       </c>
       <c r="F4">
         <v>1</v>
@@ -2085,24 +2235,27 @@
         <v>0</v>
       </c>
       <c r="K4" t="s">
-        <v>31</v>
-      </c>
-    </row>
-    <row r="5" spans="1:12">
+        <v>30</v>
+      </c>
+      <c r="M4" t="s">
+        <v>30</v>
+      </c>
+    </row>
+    <row r="5" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A5" t="s">
+        <v>27</v>
+      </c>
+      <c r="B5" t="s">
         <v>28</v>
       </c>
-      <c r="B5" t="s">
-        <v>29</v>
-      </c>
       <c r="C5" t="s">
-        <v>34</v>
+        <v>33</v>
       </c>
       <c r="D5" t="s">
         <v>8</v>
       </c>
       <c r="E5" t="s">
-        <v>31</v>
+        <v>30</v>
       </c>
       <c r="F5">
         <v>1</v>
@@ -2120,24 +2273,27 @@
         <v>0</v>
       </c>
       <c r="K5" t="s">
-        <v>31</v>
-      </c>
-    </row>
-    <row r="6" spans="1:12">
+        <v>30</v>
+      </c>
+      <c r="M5" t="s">
+        <v>30</v>
+      </c>
+    </row>
+    <row r="6" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A6" t="s">
+        <v>27</v>
+      </c>
+      <c r="B6" t="s">
         <v>28</v>
       </c>
-      <c r="B6" t="s">
-        <v>29</v>
-      </c>
       <c r="C6" t="s">
-        <v>35</v>
+        <v>34</v>
       </c>
       <c r="D6" t="s">
         <v>8</v>
       </c>
       <c r="E6" t="s">
-        <v>31</v>
+        <v>30</v>
       </c>
       <c r="F6">
         <v>1</v>
@@ -2155,24 +2311,27 @@
         <v>0</v>
       </c>
       <c r="K6" t="s">
-        <v>31</v>
-      </c>
-    </row>
-    <row r="7" spans="1:12">
+        <v>30</v>
+      </c>
+      <c r="M6" t="s">
+        <v>30</v>
+      </c>
+    </row>
+    <row r="7" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A7" t="s">
+        <v>27</v>
+      </c>
+      <c r="B7" t="s">
         <v>28</v>
       </c>
-      <c r="B7" t="s">
-        <v>29</v>
-      </c>
       <c r="C7" t="s">
-        <v>36</v>
+        <v>35</v>
       </c>
       <c r="D7" t="s">
         <v>8</v>
       </c>
       <c r="E7" t="s">
-        <v>31</v>
+        <v>30</v>
       </c>
       <c r="F7">
         <v>1</v>
@@ -2190,24 +2349,27 @@
         <v>0</v>
       </c>
       <c r="K7" t="s">
-        <v>31</v>
-      </c>
-    </row>
-    <row r="8" spans="1:12">
+        <v>30</v>
+      </c>
+      <c r="M7" t="s">
+        <v>30</v>
+      </c>
+    </row>
+    <row r="8" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A8" t="s">
+        <v>27</v>
+      </c>
+      <c r="B8" t="s">
         <v>28</v>
       </c>
-      <c r="B8" t="s">
-        <v>29</v>
-      </c>
       <c r="C8" t="s">
-        <v>37</v>
+        <v>36</v>
       </c>
       <c r="D8" t="s">
         <v>8</v>
       </c>
       <c r="E8" t="s">
-        <v>31</v>
+        <v>30</v>
       </c>
       <c r="F8">
         <v>1</v>
@@ -2225,24 +2387,27 @@
         <v>0</v>
       </c>
       <c r="K8" t="s">
-        <v>31</v>
-      </c>
-    </row>
-    <row r="9" spans="1:12">
+        <v>30</v>
+      </c>
+      <c r="M8" t="s">
+        <v>30</v>
+      </c>
+    </row>
+    <row r="9" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A9" t="s">
+        <v>27</v>
+      </c>
+      <c r="B9" t="s">
         <v>28</v>
       </c>
-      <c r="B9" t="s">
-        <v>29</v>
-      </c>
       <c r="C9" t="s">
-        <v>38</v>
+        <v>37</v>
       </c>
       <c r="D9" t="s">
         <v>8</v>
       </c>
       <c r="E9" t="s">
-        <v>31</v>
+        <v>30</v>
       </c>
       <c r="F9">
         <v>1</v>
@@ -2260,24 +2425,27 @@
         <v>0</v>
       </c>
       <c r="K9" t="s">
-        <v>31</v>
-      </c>
-    </row>
-    <row r="10" spans="1:12">
+        <v>30</v>
+      </c>
+      <c r="M9" t="s">
+        <v>30</v>
+      </c>
+    </row>
+    <row r="10" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A10" t="s">
+        <v>27</v>
+      </c>
+      <c r="B10" t="s">
         <v>28</v>
       </c>
-      <c r="B10" t="s">
-        <v>29</v>
-      </c>
       <c r="C10" t="s">
-        <v>39</v>
+        <v>38</v>
       </c>
       <c r="D10" t="s">
         <v>8</v>
       </c>
       <c r="E10" t="s">
-        <v>31</v>
+        <v>30</v>
       </c>
       <c r="F10">
         <v>1</v>
@@ -2295,24 +2463,27 @@
         <v>0</v>
       </c>
       <c r="K10" t="s">
-        <v>31</v>
-      </c>
-    </row>
-    <row r="11" spans="1:12">
+        <v>30</v>
+      </c>
+      <c r="M10" t="s">
+        <v>30</v>
+      </c>
+    </row>
+    <row r="11" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A11" t="s">
+        <v>27</v>
+      </c>
+      <c r="B11" t="s">
         <v>28</v>
       </c>
-      <c r="B11" t="s">
-        <v>29</v>
-      </c>
       <c r="C11" t="s">
-        <v>40</v>
+        <v>39</v>
       </c>
       <c r="D11" t="s">
         <v>8</v>
       </c>
       <c r="E11" t="s">
-        <v>31</v>
+        <v>30</v>
       </c>
       <c r="F11">
         <v>1</v>
@@ -2330,24 +2501,27 @@
         <v>0</v>
       </c>
       <c r="K11" t="s">
-        <v>31</v>
-      </c>
-    </row>
-    <row r="12" spans="1:12">
+        <v>30</v>
+      </c>
+      <c r="M11" t="s">
+        <v>30</v>
+      </c>
+    </row>
+    <row r="12" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A12" t="s">
+        <v>27</v>
+      </c>
+      <c r="B12" t="s">
         <v>28</v>
       </c>
-      <c r="B12" t="s">
-        <v>29</v>
-      </c>
       <c r="C12" t="s">
-        <v>41</v>
+        <v>40</v>
       </c>
       <c r="D12" t="s">
         <v>8</v>
       </c>
       <c r="E12" t="s">
-        <v>31</v>
+        <v>30</v>
       </c>
       <c r="F12">
         <v>1</v>
@@ -2365,24 +2539,27 @@
         <v>0</v>
       </c>
       <c r="K12" t="s">
-        <v>31</v>
-      </c>
-    </row>
-    <row r="13" spans="1:12">
+        <v>30</v>
+      </c>
+      <c r="M12" t="s">
+        <v>30</v>
+      </c>
+    </row>
+    <row r="13" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A13" t="s">
+        <v>27</v>
+      </c>
+      <c r="B13" t="s">
         <v>28</v>
       </c>
-      <c r="B13" t="s">
-        <v>29</v>
-      </c>
       <c r="C13" t="s">
-        <v>42</v>
+        <v>41</v>
       </c>
       <c r="D13" t="s">
         <v>4</v>
       </c>
       <c r="E13" t="s">
-        <v>31</v>
+        <v>30</v>
       </c>
       <c r="F13">
         <v>2</v>
@@ -2400,30 +2577,33 @@
         <v>0</v>
       </c>
       <c r="K13" t="s">
-        <v>31</v>
-      </c>
-    </row>
-    <row r="14" spans="1:12">
+        <v>30</v>
+      </c>
+      <c r="M13" t="s">
+        <v>30</v>
+      </c>
+    </row>
+    <row r="14" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A14" t="s">
-        <v>28</v>
+        <v>27</v>
       </c>
       <c r="B14" t="s">
+        <v>42</v>
+      </c>
+      <c r="C14" t="s">
         <v>43</v>
-      </c>
-      <c r="C14" t="s">
-        <v>44</v>
       </c>
       <c r="D14" t="s">
         <v>7</v>
       </c>
       <c r="E14" t="s">
-        <v>31</v>
+        <v>30</v>
       </c>
       <c r="G14">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="H14">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I14">
         <v>0</v>
@@ -2432,30 +2612,33 @@
         <v>1</v>
       </c>
       <c r="K14" t="s">
-        <v>31</v>
-      </c>
-    </row>
-    <row r="15" spans="1:12">
+        <v>30</v>
+      </c>
+      <c r="M14" t="s">
+        <v>30</v>
+      </c>
+    </row>
+    <row r="15" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A15" t="s">
-        <v>28</v>
+        <v>27</v>
       </c>
       <c r="B15" t="s">
-        <v>43</v>
+        <v>42</v>
       </c>
       <c r="C15" t="s">
-        <v>45</v>
+        <v>44</v>
       </c>
       <c r="D15" t="s">
         <v>7</v>
       </c>
       <c r="E15" t="s">
-        <v>31</v>
+        <v>30</v>
       </c>
       <c r="G15">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="H15">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I15">
         <v>0</v>
@@ -2464,30 +2647,33 @@
         <v>1</v>
       </c>
       <c r="K15" t="s">
-        <v>31</v>
-      </c>
-    </row>
-    <row r="16" spans="1:12">
+        <v>30</v>
+      </c>
+      <c r="M15" t="s">
+        <v>30</v>
+      </c>
+    </row>
+    <row r="16" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A16" t="s">
-        <v>28</v>
+        <v>27</v>
       </c>
       <c r="B16" t="s">
-        <v>43</v>
+        <v>42</v>
       </c>
       <c r="C16" t="s">
-        <v>46</v>
+        <v>45</v>
       </c>
       <c r="D16" t="s">
         <v>7</v>
       </c>
       <c r="E16" t="s">
-        <v>31</v>
+        <v>30</v>
       </c>
       <c r="G16">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="H16">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I16">
         <v>0</v>
@@ -2496,30 +2682,33 @@
         <v>1</v>
       </c>
       <c r="K16" t="s">
-        <v>31</v>
-      </c>
-    </row>
-    <row r="17" spans="1:12">
+        <v>30</v>
+      </c>
+      <c r="M16" t="s">
+        <v>30</v>
+      </c>
+    </row>
+    <row r="17" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A17" t="s">
-        <v>28</v>
+        <v>27</v>
       </c>
       <c r="B17" t="s">
-        <v>43</v>
+        <v>42</v>
       </c>
       <c r="C17" t="s">
-        <v>47</v>
+        <v>46</v>
       </c>
       <c r="D17" t="s">
         <v>7</v>
       </c>
       <c r="E17" t="s">
-        <v>31</v>
+        <v>30</v>
       </c>
       <c r="G17">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="H17">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I17">
         <v>0</v>
@@ -2528,30 +2717,33 @@
         <v>1</v>
       </c>
       <c r="K17" t="s">
-        <v>31</v>
-      </c>
-    </row>
-    <row r="18" spans="1:12">
+        <v>30</v>
+      </c>
+      <c r="M17" t="s">
+        <v>30</v>
+      </c>
+    </row>
+    <row r="18" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A18" t="s">
-        <v>28</v>
+        <v>27</v>
       </c>
       <c r="B18" t="s">
-        <v>43</v>
+        <v>42</v>
       </c>
       <c r="C18" t="s">
-        <v>48</v>
+        <v>47</v>
       </c>
       <c r="D18" t="s">
         <v>7</v>
       </c>
       <c r="E18" t="s">
-        <v>31</v>
+        <v>30</v>
       </c>
       <c r="G18">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="H18">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I18">
         <v>0</v>
@@ -2560,30 +2752,33 @@
         <v>1</v>
       </c>
       <c r="K18" t="s">
-        <v>31</v>
-      </c>
-    </row>
-    <row r="19" spans="1:12">
+        <v>30</v>
+      </c>
+      <c r="M18" t="s">
+        <v>30</v>
+      </c>
+    </row>
+    <row r="19" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A19" t="s">
-        <v>28</v>
+        <v>27</v>
       </c>
       <c r="B19" t="s">
-        <v>43</v>
+        <v>42</v>
       </c>
       <c r="C19" t="s">
-        <v>49</v>
+        <v>48</v>
       </c>
       <c r="D19" t="s">
         <v>7</v>
       </c>
       <c r="E19" t="s">
-        <v>31</v>
+        <v>30</v>
       </c>
       <c r="G19">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="H19">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I19">
         <v>0</v>
@@ -2592,30 +2787,33 @@
         <v>1</v>
       </c>
       <c r="K19" t="s">
-        <v>31</v>
-      </c>
-    </row>
-    <row r="20" spans="1:12">
+        <v>30</v>
+      </c>
+      <c r="M19" t="s">
+        <v>30</v>
+      </c>
+    </row>
+    <row r="20" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A20" t="s">
-        <v>28</v>
+        <v>27</v>
       </c>
       <c r="B20" t="s">
-        <v>43</v>
+        <v>42</v>
       </c>
       <c r="C20" t="s">
-        <v>50</v>
+        <v>49</v>
       </c>
       <c r="D20" t="s">
         <v>7</v>
       </c>
       <c r="E20" t="s">
-        <v>31</v>
+        <v>30</v>
       </c>
       <c r="G20">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="H20">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I20">
         <v>0</v>
@@ -2624,30 +2822,33 @@
         <v>1</v>
       </c>
       <c r="K20" t="s">
-        <v>31</v>
-      </c>
-    </row>
-    <row r="21" spans="1:12">
+        <v>30</v>
+      </c>
+      <c r="M20" t="s">
+        <v>30</v>
+      </c>
+    </row>
+    <row r="21" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A21" t="s">
-        <v>28</v>
+        <v>27</v>
       </c>
       <c r="B21" t="s">
-        <v>43</v>
+        <v>42</v>
       </c>
       <c r="C21" t="s">
-        <v>51</v>
+        <v>50</v>
       </c>
       <c r="D21" t="s">
         <v>7</v>
       </c>
       <c r="E21" t="s">
-        <v>31</v>
+        <v>30</v>
       </c>
       <c r="G21">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="H21">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I21">
         <v>0</v>
@@ -2656,30 +2857,33 @@
         <v>1</v>
       </c>
       <c r="K21" t="s">
-        <v>31</v>
-      </c>
-    </row>
-    <row r="22" spans="1:12">
+        <v>30</v>
+      </c>
+      <c r="M21" t="s">
+        <v>30</v>
+      </c>
+    </row>
+    <row r="22" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A22" t="s">
-        <v>28</v>
+        <v>27</v>
       </c>
       <c r="B22" t="s">
-        <v>43</v>
+        <v>42</v>
       </c>
       <c r="C22" t="s">
-        <v>40</v>
+        <v>39</v>
       </c>
       <c r="D22" t="s">
         <v>7</v>
       </c>
       <c r="E22" t="s">
-        <v>31</v>
+        <v>30</v>
       </c>
       <c r="G22">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="H22">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I22">
         <v>0</v>
@@ -2688,30 +2892,33 @@
         <v>1</v>
       </c>
       <c r="K22" t="s">
-        <v>31</v>
-      </c>
-    </row>
-    <row r="23" spans="1:12">
+        <v>30</v>
+      </c>
+      <c r="M22" t="s">
+        <v>30</v>
+      </c>
+    </row>
+    <row r="23" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A23" t="s">
-        <v>28</v>
+        <v>27</v>
       </c>
       <c r="B23" t="s">
-        <v>43</v>
+        <v>42</v>
       </c>
       <c r="C23" t="s">
-        <v>41</v>
+        <v>40</v>
       </c>
       <c r="D23" t="s">
         <v>7</v>
       </c>
       <c r="E23" t="s">
-        <v>31</v>
+        <v>30</v>
       </c>
       <c r="G23">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="H23">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I23">
         <v>0</v>
@@ -2720,84 +2927,96 @@
         <v>1</v>
       </c>
       <c r="K23" t="s">
-        <v>31</v>
-      </c>
-    </row>
-    <row r="24" spans="1:12">
+        <v>30</v>
+      </c>
+      <c r="M23" t="s">
+        <v>30</v>
+      </c>
+    </row>
+    <row r="24" spans="1:13" x14ac:dyDescent="0.25">
       <c r="C24" t="s">
+        <v>51</v>
+      </c>
+      <c r="L24" t="s">
         <v>52</v>
       </c>
-      <c r="L24" t="s">
+      <c r="M24" t="s">
+        <v>30</v>
+      </c>
+    </row>
+    <row r="25" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="A25" t="s">
         <v>53</v>
       </c>
-    </row>
-    <row r="25" spans="1:12">
-      <c r="A25" t="s">
+      <c r="B25" t="s">
+        <v>28</v>
+      </c>
+      <c r="C25" t="s">
         <v>54</v>
       </c>
-      <c r="B25" t="s">
-        <v>29</v>
-      </c>
-      <c r="C25" t="s">
+      <c r="G25">
+        <v>0</v>
+      </c>
+      <c r="H25">
+        <v>0</v>
+      </c>
+      <c r="I25">
+        <v>0</v>
+      </c>
+      <c r="J25">
+        <v>0</v>
+      </c>
+      <c r="M25" t="s">
+        <v>30</v>
+      </c>
+    </row>
+    <row r="26" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="A26" t="s">
+        <v>53</v>
+      </c>
+      <c r="B26" t="s">
+        <v>28</v>
+      </c>
+      <c r="C26" t="s">
         <v>55</v>
       </c>
-      <c r="G25">
-        <v>0</v>
-      </c>
-      <c r="H25">
-        <v>0</v>
-      </c>
-      <c r="I25">
-        <v>0</v>
-      </c>
-      <c r="J25">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="26" spans="1:12">
-      <c r="A26" t="s">
-        <v>54</v>
-      </c>
-      <c r="B26" t="s">
-        <v>29</v>
-      </c>
-      <c r="C26" t="s">
+      <c r="D26" t="s">
         <v>56</v>
       </c>
-      <c r="D26" t="s">
+      <c r="G26">
+        <v>0</v>
+      </c>
+      <c r="H26">
+        <v>0</v>
+      </c>
+      <c r="I26">
+        <v>0</v>
+      </c>
+      <c r="J26">
+        <v>0</v>
+      </c>
+      <c r="K26" t="s">
+        <v>30</v>
+      </c>
+      <c r="M26" t="s">
+        <v>30</v>
+      </c>
+    </row>
+    <row r="27" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="A27" t="s">
+        <v>53</v>
+      </c>
+      <c r="B27" t="s">
+        <v>42</v>
+      </c>
+      <c r="C27" t="s">
         <v>57</v>
-      </c>
-      <c r="G26">
-        <v>0</v>
-      </c>
-      <c r="H26">
-        <v>0</v>
-      </c>
-      <c r="I26">
-        <v>0</v>
-      </c>
-      <c r="J26">
-        <v>0</v>
-      </c>
-      <c r="K26" t="s">
-        <v>31</v>
-      </c>
-    </row>
-    <row r="27" spans="1:12">
-      <c r="A27" t="s">
-        <v>54</v>
-      </c>
-      <c r="B27" t="s">
-        <v>43</v>
-      </c>
-      <c r="C27" t="s">
-        <v>58</v>
       </c>
       <c r="D27" t="s">
         <v>7</v>
       </c>
       <c r="E27" t="s">
-        <v>31</v>
+        <v>30</v>
       </c>
       <c r="G27">
         <v>1</v>
@@ -2812,24 +3031,27 @@
         <v>1</v>
       </c>
       <c r="L27" t="s">
+        <v>58</v>
+      </c>
+      <c r="M27" t="s">
+        <v>30</v>
+      </c>
+    </row>
+    <row r="28" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="A28" t="s">
+        <v>53</v>
+      </c>
+      <c r="B28" t="s">
+        <v>42</v>
+      </c>
+      <c r="C28" t="s">
         <v>59</v>
-      </c>
-    </row>
-    <row r="28" spans="1:12">
-      <c r="A28" t="s">
-        <v>54</v>
-      </c>
-      <c r="B28" t="s">
-        <v>43</v>
-      </c>
-      <c r="C28" t="s">
-        <v>60</v>
       </c>
       <c r="D28" t="s">
         <v>7</v>
       </c>
       <c r="E28" t="s">
-        <v>31</v>
+        <v>30</v>
       </c>
       <c r="G28">
         <v>1</v>
@@ -2844,24 +3066,30 @@
         <v>1</v>
       </c>
       <c r="L28" t="s">
-        <v>59</v>
-      </c>
-    </row>
-    <row r="29" spans="1:12">
+        <v>58</v>
+      </c>
+      <c r="M28" t="s">
+        <v>30</v>
+      </c>
+    </row>
+    <row r="29" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A29" t="s">
-        <v>54</v>
+        <v>53</v>
       </c>
       <c r="B29" t="s">
-        <v>43</v>
+        <v>42</v>
       </c>
       <c r="C29" t="s">
-        <v>61</v>
+        <v>60</v>
       </c>
       <c r="D29" t="s">
         <v>7</v>
       </c>
       <c r="E29" t="s">
-        <v>31</v>
+        <v>30</v>
+      </c>
+      <c r="G29">
+        <v>1</v>
       </c>
       <c r="H29">
         <v>0</v>
@@ -2873,69 +3101,81 @@
         <v>1</v>
       </c>
       <c r="L29" t="s">
+        <v>61</v>
+      </c>
+      <c r="M29" t="s">
+        <v>30</v>
+      </c>
+    </row>
+    <row r="30" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="A30" t="s">
         <v>62</v>
       </c>
-    </row>
-    <row r="30" spans="1:12">
-      <c r="A30" t="s">
+      <c r="B30" t="s">
+        <v>28</v>
+      </c>
+      <c r="C30" t="s">
         <v>63</v>
       </c>
-      <c r="B30" t="s">
-        <v>29</v>
-      </c>
-      <c r="C30" t="s">
+      <c r="D30" t="s">
+        <v>11</v>
+      </c>
+      <c r="E30" t="s">
+        <v>30</v>
+      </c>
+      <c r="G30">
+        <v>2</v>
+      </c>
+      <c r="M30" t="s">
+        <v>30</v>
+      </c>
+    </row>
+    <row r="31" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="A31" t="s">
+        <v>62</v>
+      </c>
+      <c r="C31" t="s">
         <v>64</v>
       </c>
-      <c r="D30" t="s">
-        <v>12</v>
-      </c>
-      <c r="E30" t="s">
-        <v>31</v>
-      </c>
-      <c r="G30">
-        <v>7</v>
-      </c>
-    </row>
-    <row r="31" spans="1:12">
-      <c r="A31" t="s">
-        <v>63</v>
-      </c>
-      <c r="C31" t="s">
+      <c r="D31" t="s">
+        <v>11</v>
+      </c>
+      <c r="E31" t="s">
+        <v>30</v>
+      </c>
+      <c r="G31">
+        <v>2</v>
+      </c>
+      <c r="M31" t="s">
+        <v>30</v>
+      </c>
+    </row>
+    <row r="32" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="A32" t="s">
+        <v>62</v>
+      </c>
+      <c r="C32" t="s">
         <v>65</v>
       </c>
-      <c r="D31" t="s">
-        <v>12</v>
-      </c>
-      <c r="E31" t="s">
-        <v>31</v>
-      </c>
-      <c r="G31">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="32" spans="1:12">
-      <c r="A32" t="s">
-        <v>63</v>
-      </c>
-      <c r="C32" t="s">
+      <c r="D32" t="s">
+        <v>13</v>
+      </c>
+      <c r="E32" t="s">
+        <v>30</v>
+      </c>
+      <c r="G32">
+        <v>1</v>
+      </c>
+      <c r="L32" t="s">
         <v>66</v>
       </c>
-      <c r="D32" t="s">
-        <v>10</v>
-      </c>
-      <c r="E32" t="s">
-        <v>31</v>
-      </c>
-      <c r="G32">
-        <v>0</v>
-      </c>
-      <c r="L32" t="s">
-        <v>53</v>
-      </c>
-    </row>
-    <row r="33" spans="1:12">
+      <c r="M32" t="s">
+        <v>30</v>
+      </c>
+    </row>
+    <row r="33" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A33" t="s">
-        <v>63</v>
+        <v>62</v>
       </c>
       <c r="C33" t="s">
         <v>67</v>
@@ -2944,7 +3184,7 @@
         <v>10</v>
       </c>
       <c r="E33" t="s">
-        <v>31</v>
+        <v>30</v>
       </c>
       <c r="G33">
         <v>1</v>
@@ -2952,10 +3192,13 @@
       <c r="L33" t="s">
         <v>68</v>
       </c>
-    </row>
-    <row r="34" spans="1:12">
+      <c r="M33" t="s">
+        <v>30</v>
+      </c>
+    </row>
+    <row r="34" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A34" t="s">
-        <v>63</v>
+        <v>62</v>
       </c>
       <c r="C34" t="s">
         <v>69</v>
@@ -2964,7 +3207,7 @@
         <v>10</v>
       </c>
       <c r="E34" t="s">
-        <v>31</v>
+        <v>30</v>
       </c>
       <c r="G34">
         <v>1</v>
@@ -2972,10 +3215,13 @@
       <c r="L34" t="s">
         <v>68</v>
       </c>
-    </row>
-    <row r="35" spans="1:12">
+      <c r="M34" t="s">
+        <v>30</v>
+      </c>
+    </row>
+    <row r="35" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A35" t="s">
-        <v>63</v>
+        <v>62</v>
       </c>
       <c r="C35" t="s">
         <v>70</v>
@@ -2984,15 +3230,18 @@
         <v>11</v>
       </c>
       <c r="E35" t="s">
-        <v>31</v>
+        <v>30</v>
       </c>
       <c r="G35">
         <v>2</v>
       </c>
-    </row>
-    <row r="36" spans="1:12">
+      <c r="M35" t="s">
+        <v>30</v>
+      </c>
+    </row>
+    <row r="36" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A36" t="s">
-        <v>63</v>
+        <v>62</v>
       </c>
       <c r="C36" t="s">
         <v>71</v>
@@ -3001,7 +3250,7 @@
         <v>10</v>
       </c>
       <c r="E36" t="s">
-        <v>31</v>
+        <v>30</v>
       </c>
       <c r="G36">
         <v>1</v>
@@ -3009,10 +3258,13 @@
       <c r="L36" t="s">
         <v>68</v>
       </c>
-    </row>
-    <row r="37" spans="1:12">
+      <c r="M36" t="s">
+        <v>30</v>
+      </c>
+    </row>
+    <row r="37" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A37" t="s">
-        <v>63</v>
+        <v>62</v>
       </c>
       <c r="C37" t="s">
         <v>72</v>
@@ -3021,7 +3273,7 @@
         <v>10</v>
       </c>
       <c r="E37" t="s">
-        <v>31</v>
+        <v>30</v>
       </c>
       <c r="G37">
         <v>1</v>
@@ -3029,10 +3281,13 @@
       <c r="L37" t="s">
         <v>68</v>
       </c>
-    </row>
-    <row r="38" spans="1:12">
+      <c r="M37" t="s">
+        <v>30</v>
+      </c>
+    </row>
+    <row r="38" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A38" t="s">
-        <v>63</v>
+        <v>62</v>
       </c>
       <c r="C38" t="s">
         <v>73</v>
@@ -3041,15 +3296,18 @@
         <v>11</v>
       </c>
       <c r="E38" t="s">
-        <v>31</v>
+        <v>30</v>
       </c>
       <c r="G38">
         <v>2</v>
       </c>
-    </row>
-    <row r="39" spans="1:12">
+      <c r="M38" t="s">
+        <v>30</v>
+      </c>
+    </row>
+    <row r="39" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A39" t="s">
-        <v>54</v>
+        <v>53</v>
       </c>
       <c r="C39" t="s">
         <v>74</v>
@@ -3066,8 +3324,11 @@
       <c r="J39">
         <v>0</v>
       </c>
-    </row>
-    <row r="40" spans="1:12">
+      <c r="M39" t="s">
+        <v>30</v>
+      </c>
+    </row>
+    <row r="40" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A40" t="s">
         <v>75</v>
       </c>
@@ -3078,7 +3339,7 @@
         <v>10</v>
       </c>
       <c r="E40" t="s">
-        <v>31</v>
+        <v>30</v>
       </c>
       <c r="G40">
         <v>1</v>
@@ -3086,8 +3347,11 @@
       <c r="L40" t="s">
         <v>77</v>
       </c>
-    </row>
-    <row r="41" spans="1:12">
+      <c r="M40" t="s">
+        <v>30</v>
+      </c>
+    </row>
+    <row r="41" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A41" t="s">
         <v>75</v>
       </c>
@@ -3098,7 +3362,7 @@
         <v>10</v>
       </c>
       <c r="E41" t="s">
-        <v>31</v>
+        <v>30</v>
       </c>
       <c r="G41">
         <v>1</v>
@@ -3106,8 +3370,11 @@
       <c r="L41" t="s">
         <v>77</v>
       </c>
-    </row>
-    <row r="42" spans="1:12">
+      <c r="M41" t="s">
+        <v>30</v>
+      </c>
+    </row>
+    <row r="42" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A42" t="s">
         <v>75</v>
       </c>
@@ -3118,7 +3385,7 @@
         <v>10</v>
       </c>
       <c r="E42" t="s">
-        <v>31</v>
+        <v>30</v>
       </c>
       <c r="G42">
         <v>1</v>
@@ -3126,8 +3393,11 @@
       <c r="L42" t="s">
         <v>77</v>
       </c>
-    </row>
-    <row r="43" spans="1:12">
+      <c r="M42" t="s">
+        <v>30</v>
+      </c>
+    </row>
+    <row r="43" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A43" t="s">
         <v>75</v>
       </c>
@@ -3138,7 +3408,7 @@
         <v>10</v>
       </c>
       <c r="E43" t="s">
-        <v>31</v>
+        <v>30</v>
       </c>
       <c r="G43">
         <v>1</v>
@@ -3146,8 +3416,11 @@
       <c r="L43" t="s">
         <v>77</v>
       </c>
-    </row>
-    <row r="44" spans="1:12">
+      <c r="M43" t="s">
+        <v>30</v>
+      </c>
+    </row>
+    <row r="44" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A44" t="s">
         <v>75</v>
       </c>
@@ -3158,7 +3431,7 @@
         <v>10</v>
       </c>
       <c r="E44" t="s">
-        <v>31</v>
+        <v>30</v>
       </c>
       <c r="G44">
         <v>1</v>
@@ -3166,8 +3439,11 @@
       <c r="L44" t="s">
         <v>77</v>
       </c>
-    </row>
-    <row r="45" spans="1:12">
+      <c r="M44" t="s">
+        <v>30</v>
+      </c>
+    </row>
+    <row r="45" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A45" t="s">
         <v>75</v>
       </c>
@@ -3178,7 +3454,7 @@
         <v>10</v>
       </c>
       <c r="E45" t="s">
-        <v>31</v>
+        <v>30</v>
       </c>
       <c r="G45">
         <v>1</v>
@@ -3186,8 +3462,11 @@
       <c r="L45" t="s">
         <v>77</v>
       </c>
-    </row>
-    <row r="46" spans="1:12">
+      <c r="M45" t="s">
+        <v>30</v>
+      </c>
+    </row>
+    <row r="46" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A46" t="s">
         <v>75</v>
       </c>
@@ -3198,7 +3477,7 @@
         <v>10</v>
       </c>
       <c r="E46" t="s">
-        <v>31</v>
+        <v>30</v>
       </c>
       <c r="G46">
         <v>1</v>
@@ -3206,8 +3485,11 @@
       <c r="L46" t="s">
         <v>77</v>
       </c>
-    </row>
-    <row r="47" spans="1:12">
+      <c r="M46" t="s">
+        <v>30</v>
+      </c>
+    </row>
+    <row r="47" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A47" t="s">
         <v>75</v>
       </c>
@@ -3218,7 +3500,7 @@
         <v>10</v>
       </c>
       <c r="E47" t="s">
-        <v>31</v>
+        <v>30</v>
       </c>
       <c r="G47">
         <v>1</v>
@@ -3226,8 +3508,11 @@
       <c r="L47" t="s">
         <v>77</v>
       </c>
-    </row>
-    <row r="48" spans="1:12">
+      <c r="M47" t="s">
+        <v>30</v>
+      </c>
+    </row>
+    <row r="48" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A48" t="s">
         <v>75</v>
       </c>
@@ -3238,7 +3523,7 @@
         <v>10</v>
       </c>
       <c r="E48" t="s">
-        <v>31</v>
+        <v>30</v>
       </c>
       <c r="G48">
         <v>1</v>
@@ -3246,8 +3531,11 @@
       <c r="L48" t="s">
         <v>77</v>
       </c>
-    </row>
-    <row r="49" spans="1:12">
+      <c r="M48" t="s">
+        <v>30</v>
+      </c>
+    </row>
+    <row r="49" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A49" t="s">
         <v>75</v>
       </c>
@@ -3258,7 +3546,7 @@
         <v>10</v>
       </c>
       <c r="E49" t="s">
-        <v>31</v>
+        <v>30</v>
       </c>
       <c r="G49">
         <v>1</v>
@@ -3266,10 +3554,13 @@
       <c r="L49" t="s">
         <v>77</v>
       </c>
-    </row>
-    <row r="50" spans="1:12">
+      <c r="M49" t="s">
+        <v>30</v>
+      </c>
+    </row>
+    <row r="50" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A50" t="s">
-        <v>54</v>
+        <v>53</v>
       </c>
       <c r="C50" t="s">
         <v>87</v>
@@ -3278,15 +3569,18 @@
         <v>12</v>
       </c>
       <c r="E50" t="s">
-        <v>31</v>
+        <v>30</v>
       </c>
       <c r="G50">
         <v>2</v>
       </c>
-    </row>
-    <row r="51" spans="1:12">
+      <c r="M50" t="s">
+        <v>30</v>
+      </c>
+    </row>
+    <row r="51" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A51" t="s">
-        <v>54</v>
+        <v>53</v>
       </c>
       <c r="C51" t="s">
         <v>88</v>
@@ -3295,7 +3589,7 @@
         <v>13</v>
       </c>
       <c r="E51" t="s">
-        <v>31</v>
+        <v>30</v>
       </c>
       <c r="G51">
         <v>1</v>
@@ -3303,10 +3597,13 @@
       <c r="K51" t="s">
         <v>13</v>
       </c>
-    </row>
-    <row r="52" spans="1:12">
+      <c r="M51" t="s">
+        <v>30</v>
+      </c>
+    </row>
+    <row r="52" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A52" t="s">
-        <v>54</v>
+        <v>53</v>
       </c>
       <c r="C52" t="s">
         <v>89</v>
@@ -3315,7 +3612,7 @@
         <v>13</v>
       </c>
       <c r="E52" t="s">
-        <v>31</v>
+        <v>30</v>
       </c>
       <c r="G52">
         <v>1</v>
@@ -3323,10 +3620,13 @@
       <c r="K52" t="s">
         <v>13</v>
       </c>
-    </row>
-    <row r="53" spans="1:12">
+      <c r="M52" t="s">
+        <v>30</v>
+      </c>
+    </row>
+    <row r="53" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A53" t="s">
-        <v>54</v>
+        <v>53</v>
       </c>
       <c r="C53" t="s">
         <v>90</v>
@@ -3335,7 +3635,7 @@
         <v>13</v>
       </c>
       <c r="E53" t="s">
-        <v>31</v>
+        <v>30</v>
       </c>
       <c r="G53">
         <v>1</v>
@@ -3343,10 +3643,13 @@
       <c r="K53" t="s">
         <v>13</v>
       </c>
-    </row>
-    <row r="54" spans="1:12">
+      <c r="M53" t="s">
+        <v>30</v>
+      </c>
+    </row>
+    <row r="54" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A54" t="s">
-        <v>54</v>
+        <v>53</v>
       </c>
       <c r="C54" t="s">
         <v>91</v>
@@ -3355,117 +3658,147 @@
         <v>7</v>
       </c>
       <c r="E54" t="s">
-        <v>31</v>
-      </c>
-    </row>
-    <row r="55" spans="1:12">
+        <v>30</v>
+      </c>
+      <c r="G54">
+        <v>1</v>
+      </c>
+      <c r="L54" t="s">
+        <v>92</v>
+      </c>
+      <c r="M54" t="s">
+        <v>30</v>
+      </c>
+    </row>
+    <row r="55" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A55" t="s">
-        <v>54</v>
+        <v>53</v>
       </c>
       <c r="C55" t="s">
-        <v>92</v>
+        <v>93</v>
       </c>
       <c r="D55" t="s">
         <v>7</v>
       </c>
       <c r="E55" t="s">
-        <v>31</v>
-      </c>
-    </row>
-    <row r="56" spans="1:12">
+        <v>30</v>
+      </c>
+      <c r="G55">
+        <v>1</v>
+      </c>
+      <c r="L55" t="s">
+        <v>92</v>
+      </c>
+      <c r="M55" t="s">
+        <v>30</v>
+      </c>
+    </row>
+    <row r="56" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A56" t="s">
-        <v>54</v>
+        <v>53</v>
       </c>
       <c r="C56" t="s">
-        <v>93</v>
+        <v>94</v>
       </c>
       <c r="D56" t="s">
         <v>7</v>
       </c>
       <c r="E56" t="s">
-        <v>31</v>
-      </c>
-    </row>
-    <row r="57" spans="1:12">
+        <v>30</v>
+      </c>
+      <c r="G56">
+        <v>1</v>
+      </c>
+      <c r="L56" t="s">
+        <v>92</v>
+      </c>
+      <c r="M56" t="s">
+        <v>30</v>
+      </c>
+    </row>
+    <row r="57" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A57" t="s">
-        <v>94</v>
+        <v>95</v>
       </c>
       <c r="C57" t="s">
-        <v>95</v>
+        <v>96</v>
       </c>
       <c r="D57" t="s">
         <v>5</v>
       </c>
       <c r="J57" t="s">
-        <v>31</v>
+        <v>30</v>
       </c>
       <c r="K57" t="s">
-        <v>96</v>
-      </c>
-    </row>
-    <row r="58" spans="1:12">
+        <v>97</v>
+      </c>
+    </row>
+    <row r="58" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A58" t="s">
-        <v>94</v>
+        <v>95</v>
       </c>
       <c r="C58" t="s">
-        <v>97</v>
+        <v>98</v>
       </c>
       <c r="D58" t="s">
         <v>6</v>
       </c>
       <c r="E58" t="s">
-        <v>31</v>
+        <v>30</v>
       </c>
       <c r="G58">
         <v>1</v>
       </c>
       <c r="K58" t="s">
-        <v>98</v>
+        <v>99</v>
       </c>
       <c r="L58" t="s">
-        <v>99</v>
-      </c>
-    </row>
-    <row r="59" spans="1:12">
+        <v>100</v>
+      </c>
+    </row>
+    <row r="59" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A59" t="s">
-        <v>94</v>
+        <v>95</v>
       </c>
       <c r="C59" t="s">
-        <v>100</v>
+        <v>101</v>
       </c>
       <c r="D59" t="s">
         <v>5</v>
       </c>
       <c r="J59" t="s">
-        <v>31</v>
+        <v>30</v>
       </c>
       <c r="K59" t="s">
-        <v>96</v>
-      </c>
-    </row>
-    <row r="60" spans="1:12">
+        <v>97</v>
+      </c>
+    </row>
+    <row r="60" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A60" t="s">
-        <v>94</v>
+        <v>95</v>
       </c>
       <c r="C60" t="s">
-        <v>101</v>
+        <v>102</v>
       </c>
       <c r="D60" t="s">
         <v>6</v>
       </c>
       <c r="E60" t="s">
-        <v>31</v>
+        <v>30</v>
       </c>
       <c r="G60">
         <v>1</v>
       </c>
       <c r="K60" t="s">
-        <v>102</v>
-      </c>
-    </row>
-    <row r="61" spans="1:12">
+        <v>103</v>
+      </c>
+      <c r="L60" t="s">
+        <v>104</v>
+      </c>
+    </row>
+    <row r="61" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A61" t="s">
-        <v>103</v>
+        <v>105</v>
       </c>
       <c r="C61" t="s">
         <v>3</v>
@@ -3474,32 +3807,32 @@
         <v>3</v>
       </c>
       <c r="E61" t="s">
-        <v>31</v>
+        <v>30</v>
       </c>
       <c r="I61">
         <v>3</v>
       </c>
     </row>
-    <row r="62" spans="1:12">
+    <row r="62" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A62" t="s">
-        <v>103</v>
+        <v>105</v>
       </c>
       <c r="C62" t="s">
-        <v>104</v>
+        <v>106</v>
       </c>
       <c r="D62" t="s">
         <v>13</v>
       </c>
       <c r="E62" t="s">
-        <v>31</v>
+        <v>30</v>
       </c>
       <c r="G62">
         <v>1</v>
       </c>
     </row>
-    <row r="63" spans="1:12">
+    <row r="63" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A63" t="s">
-        <v>105</v>
+        <v>107</v>
       </c>
       <c r="C63" t="s">
         <v>9</v>
@@ -3511,15 +3844,15 @@
         <v>1</v>
       </c>
       <c r="K63" t="s">
-        <v>31</v>
-      </c>
-    </row>
-    <row r="64" spans="1:12">
+        <v>30</v>
+      </c>
+    </row>
+    <row r="64" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A64" t="s">
-        <v>105</v>
+        <v>107</v>
       </c>
       <c r="C64" t="s">
-        <v>106</v>
+        <v>108</v>
       </c>
       <c r="D64" t="s">
         <v>12</v>
@@ -3531,117 +3864,117 @@
         <v>0</v>
       </c>
     </row>
-    <row r="65" spans="1:7">
+    <row r="65" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A65" t="s">
-        <v>107</v>
+        <v>109</v>
       </c>
       <c r="C65" t="s">
-        <v>108</v>
+        <v>110</v>
       </c>
       <c r="D65" t="s">
         <v>12</v>
       </c>
       <c r="E65" t="s">
-        <v>31</v>
+        <v>30</v>
       </c>
       <c r="G65">
         <v>5</v>
       </c>
     </row>
-    <row r="66" spans="1:7">
+    <row r="66" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A66" t="s">
-        <v>107</v>
+        <v>109</v>
       </c>
       <c r="C66" t="s">
-        <v>109</v>
+        <v>111</v>
       </c>
       <c r="D66" t="s">
         <v>2</v>
       </c>
       <c r="E66" t="s">
-        <v>31</v>
-      </c>
-    </row>
-    <row r="67" spans="1:7">
+        <v>30</v>
+      </c>
+    </row>
+    <row r="67" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A67" t="s">
-        <v>107</v>
+        <v>109</v>
       </c>
       <c r="C67" t="s">
-        <v>110</v>
+        <v>112</v>
       </c>
       <c r="D67" t="s">
         <v>11</v>
       </c>
       <c r="E67" t="s">
-        <v>31</v>
+        <v>30</v>
       </c>
       <c r="G67">
         <v>2</v>
       </c>
     </row>
-    <row r="70" spans="1:7">
+    <row r="70" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A70" t="s">
-        <v>111</v>
-      </c>
-    </row>
-    <row r="71" spans="1:7">
+        <v>113</v>
+      </c>
+    </row>
+    <row r="71" spans="1:7" x14ac:dyDescent="0.25">
       <c r="C71" t="s">
-        <v>112</v>
-      </c>
-    </row>
-    <row r="72" spans="1:7">
+        <v>114</v>
+      </c>
+    </row>
+    <row r="72" spans="1:7" x14ac:dyDescent="0.25">
       <c r="C72" t="s">
-        <v>113</v>
-      </c>
-    </row>
-    <row r="73" spans="1:7">
+        <v>115</v>
+      </c>
+    </row>
+    <row r="73" spans="1:7" x14ac:dyDescent="0.25">
       <c r="C73" t="s">
-        <v>114</v>
-      </c>
-    </row>
-    <row r="74" spans="1:7">
+        <v>116</v>
+      </c>
+    </row>
+    <row r="74" spans="1:7" x14ac:dyDescent="0.25">
       <c r="C74" t="s">
-        <v>115</v>
-      </c>
-    </row>
-    <row r="75" spans="1:7">
+        <v>117</v>
+      </c>
+    </row>
+    <row r="75" spans="1:7" x14ac:dyDescent="0.25">
       <c r="C75" t="s">
-        <v>116</v>
-      </c>
-    </row>
-    <row r="76" spans="1:7">
+        <v>118</v>
+      </c>
+    </row>
+    <row r="76" spans="1:7" x14ac:dyDescent="0.25">
       <c r="C76" t="s">
-        <v>115</v>
-      </c>
-    </row>
-    <row r="77" spans="1:7">
+        <v>117</v>
+      </c>
+    </row>
+    <row r="77" spans="1:7" x14ac:dyDescent="0.25">
       <c r="C77" t="s">
-        <v>117</v>
-      </c>
-    </row>
-    <row r="78" spans="1:7">
+        <v>119</v>
+      </c>
+    </row>
+    <row r="78" spans="1:7" x14ac:dyDescent="0.25">
       <c r="C78" t="s">
-        <v>118</v>
-      </c>
-    </row>
-    <row r="79" spans="1:7">
+        <v>120</v>
+      </c>
+    </row>
+    <row r="79" spans="1:7" x14ac:dyDescent="0.25">
       <c r="C79" t="s">
-        <v>119</v>
-      </c>
-    </row>
-    <row r="80" spans="1:7">
+        <v>121</v>
+      </c>
+    </row>
+    <row r="80" spans="1:7" x14ac:dyDescent="0.25">
       <c r="C80" t="s">
-        <v>120</v>
-      </c>
-    </row>
-    <row r="81" spans="3:3">
+        <v>122</v>
+      </c>
+    </row>
+    <row r="81" spans="3:3" x14ac:dyDescent="0.25">
       <c r="C81" t="s">
-        <v>121</v>
-      </c>
-    </row>
-    <row r="82" spans="3:3">
+        <v>123</v>
+      </c>
+    </row>
+    <row r="82" spans="3:3" x14ac:dyDescent="0.25">
       <c r="C82" t="s">
-        <v>122</v>
+        <v>124</v>
       </c>
     </row>
   </sheetData>
@@ -3650,112 +3983,760 @@
 </file>
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0100-000000000000}">
-  <dimension ref="A1:G16"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <dimension ref="A1:K40"/>
   <sheetViews>
-    <sheetView workbookViewId="0" xr3:uid="{958C4451-9541-5A59-BF78-D2F731DF1C81}">
-      <selection activeCell="B6" sqref="B6"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="M1" sqref="L1:M1"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.65"/>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
     <col min="2" max="2" width="33.140625" customWidth="1"/>
     <col min="3" max="3" width="39" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:7">
+    <row r="1" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A1" t="s">
-        <v>123</v>
-      </c>
-    </row>
-    <row r="2" spans="1:7">
+        <v>125</v>
+      </c>
+      <c r="D1" t="s">
+        <v>126</v>
+      </c>
+      <c r="E1" t="s">
+        <v>127</v>
+      </c>
+      <c r="F1" t="s">
+        <v>128</v>
+      </c>
+      <c r="G1" t="s">
+        <v>129</v>
+      </c>
+      <c r="I1" t="s">
+        <v>130</v>
+      </c>
+      <c r="J1" t="s">
+        <v>131</v>
+      </c>
+      <c r="K1" t="s">
+        <v>132</v>
+      </c>
+    </row>
+    <row r="2" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A2">
         <v>1</v>
       </c>
       <c r="B2" t="s">
-        <v>124</v>
+        <v>133</v>
       </c>
       <c r="C2" s="1" t="s">
-        <v>125</v>
+        <v>134</v>
       </c>
       <c r="D2" s="2">
-        <v>3.95</v>
-      </c>
-      <c r="E2" t="s">
-        <v>126</v>
-      </c>
-      <c r="F2" t="s">
-        <v>127</v>
-      </c>
-      <c r="G2" t="s">
-        <v>128</v>
-      </c>
-    </row>
-    <row r="3" spans="1:7">
+        <v>10.27</v>
+      </c>
+      <c r="E2">
+        <v>10</v>
+      </c>
+      <c r="F2">
+        <v>10</v>
+      </c>
+      <c r="G2" s="2">
+        <f>ROUNDUP(E2/F2,0)*D2</f>
+        <v>10.27</v>
+      </c>
+      <c r="I2">
+        <v>15.5</v>
+      </c>
+      <c r="J2">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="3" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A3">
         <v>2</v>
       </c>
       <c r="B3" t="s">
-        <v>129</v>
-      </c>
-      <c r="C3" t="s">
-        <v>130</v>
+        <v>135</v>
+      </c>
+      <c r="C3" s="1" t="s">
+        <v>136</v>
       </c>
       <c r="D3" s="2">
-        <v>39.99</v>
-      </c>
-    </row>
-    <row r="4" spans="1:7">
+        <v>1.1499999999999999</v>
+      </c>
+      <c r="E3">
+        <v>3</v>
+      </c>
+      <c r="F3">
+        <v>1</v>
+      </c>
+      <c r="G3" s="2">
+        <f t="shared" ref="G3:G36" si="0">ROUNDUP(E3/F3,0)*D3</f>
+        <v>3.4499999999999997</v>
+      </c>
+      <c r="J3" t="s">
+        <v>137</v>
+      </c>
+    </row>
+    <row r="4" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A4">
+        <v>4</v>
+      </c>
+      <c r="B4" t="s">
         <v>3</v>
       </c>
-      <c r="B4" t="s">
-        <v>131</v>
-      </c>
-      <c r="C4" t="s">
-        <v>132</v>
+      <c r="C4" s="1" t="s">
+        <v>138</v>
       </c>
       <c r="D4">
-        <v>4.99</v>
-      </c>
-    </row>
-    <row r="5" spans="1:7">
+        <v>14</v>
+      </c>
+      <c r="E4">
+        <v>1</v>
+      </c>
+      <c r="F4">
+        <v>1</v>
+      </c>
+      <c r="G4" s="2">
+        <f t="shared" si="0"/>
+        <v>14</v>
+      </c>
+      <c r="K4" t="s">
+        <v>139</v>
+      </c>
+    </row>
+    <row r="5" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A5">
+        <v>5</v>
+      </c>
+      <c r="B5" t="s">
+        <v>140</v>
+      </c>
+      <c r="D5">
+        <v>1.04</v>
+      </c>
+      <c r="E5">
+        <v>6</v>
+      </c>
+      <c r="F5">
+        <v>20</v>
+      </c>
+      <c r="G5" s="2">
+        <f t="shared" si="0"/>
+        <v>1.04</v>
+      </c>
+      <c r="I5">
+        <v>5.4</v>
+      </c>
+      <c r="J5">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="6" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A6">
+        <v>6</v>
+      </c>
+      <c r="B6" t="s">
+        <v>141</v>
+      </c>
+      <c r="D6">
+        <v>1.56</v>
+      </c>
+      <c r="E6">
+        <v>1</v>
+      </c>
+      <c r="F6">
+        <v>20</v>
+      </c>
+      <c r="G6" s="2">
+        <f t="shared" si="0"/>
+        <v>1.56</v>
+      </c>
+      <c r="I6">
+        <v>7.2</v>
+      </c>
+      <c r="J6">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="7" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A7">
+        <v>7</v>
+      </c>
+      <c r="B7" t="s">
+        <v>77</v>
+      </c>
+      <c r="D7">
+        <v>3.99</v>
+      </c>
+      <c r="F7">
+        <v>20</v>
+      </c>
+      <c r="G7" s="2">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+      <c r="I7">
+        <v>6.4</v>
+      </c>
+      <c r="J7">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="8" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A8">
+        <v>8</v>
+      </c>
+      <c r="B8" t="s">
+        <v>142</v>
+      </c>
+      <c r="C8" s="1" t="s">
+        <v>143</v>
+      </c>
+      <c r="D8">
         <v>4</v>
       </c>
-      <c r="B5" t="s">
-        <v>3</v>
-      </c>
-      <c r="C5" t="s">
-        <v>133</v>
-      </c>
-      <c r="D5">
-        <v>44</v>
-      </c>
-    </row>
-    <row r="13" spans="1:7">
-      <c r="A13" t="s">
-        <v>134</v>
-      </c>
-    </row>
-    <row r="14" spans="1:7">
+      <c r="E8">
+        <v>2</v>
+      </c>
+      <c r="F8">
+        <v>1</v>
+      </c>
+      <c r="G8" s="2">
+        <f t="shared" si="0"/>
+        <v>8</v>
+      </c>
+      <c r="I8">
+        <v>21.5</v>
+      </c>
+      <c r="J8">
+        <v>22</v>
+      </c>
+    </row>
+    <row r="9" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="B9" t="s">
+        <v>144</v>
+      </c>
+      <c r="C9" s="1" t="s">
+        <v>143</v>
+      </c>
+      <c r="D9">
+        <v>2.64</v>
+      </c>
+      <c r="E9">
+        <v>2</v>
+      </c>
+      <c r="F9">
+        <v>1</v>
+      </c>
+      <c r="G9" s="2">
+        <f t="shared" si="0"/>
+        <v>5.28</v>
+      </c>
+      <c r="J9">
+        <v>19</v>
+      </c>
+    </row>
+    <row r="10" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="B10" t="s">
+        <v>145</v>
+      </c>
+      <c r="C10" s="1" t="s">
+        <v>143</v>
+      </c>
+      <c r="D10">
+        <v>1.73</v>
+      </c>
+      <c r="E10">
+        <v>4</v>
+      </c>
+      <c r="F10">
+        <v>1</v>
+      </c>
+      <c r="G10" s="2">
+        <f t="shared" si="0"/>
+        <v>6.92</v>
+      </c>
+      <c r="J10">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="11" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A11">
+        <v>9</v>
+      </c>
+      <c r="B11" t="s">
+        <v>146</v>
+      </c>
+      <c r="D11">
+        <v>0.94</v>
+      </c>
+      <c r="E11">
+        <v>2</v>
+      </c>
+      <c r="F11">
+        <v>5</v>
+      </c>
+      <c r="G11" s="2">
+        <f t="shared" si="0"/>
+        <v>0.94</v>
+      </c>
+      <c r="I11">
+        <v>6.4</v>
+      </c>
+      <c r="J11">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="12" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A12">
+        <v>10</v>
+      </c>
+      <c r="B12" t="s">
+        <v>147</v>
+      </c>
+      <c r="D12">
+        <v>7.05</v>
+      </c>
+      <c r="E12">
+        <v>5</v>
+      </c>
+      <c r="F12">
+        <v>10</v>
+      </c>
+      <c r="G12" s="2">
+        <f t="shared" si="0"/>
+        <v>7.05</v>
+      </c>
+      <c r="I12">
+        <v>8.5</v>
+      </c>
+      <c r="J12">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="13" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A13">
+        <v>11</v>
+      </c>
+      <c r="B13" t="s">
+        <v>148</v>
+      </c>
+      <c r="C13" t="s">
+        <v>149</v>
+      </c>
+      <c r="E13">
+        <v>1</v>
+      </c>
+      <c r="G13" s="2" t="e">
+        <f t="shared" si="0"/>
+        <v>#DIV/0!</v>
+      </c>
+      <c r="K13" t="s">
+        <v>150</v>
+      </c>
+    </row>
+    <row r="14" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A14">
+        <v>12</v>
+      </c>
       <c r="B14" t="s">
-        <v>135</v>
-      </c>
-    </row>
-    <row r="15" spans="1:7">
+        <v>151</v>
+      </c>
+      <c r="C14" t="s">
+        <v>149</v>
+      </c>
+      <c r="E14">
+        <v>2</v>
+      </c>
+      <c r="G14" s="2" t="e">
+        <f t="shared" si="0"/>
+        <v>#DIV/0!</v>
+      </c>
+      <c r="I14" t="s">
+        <v>152</v>
+      </c>
+    </row>
+    <row r="15" spans="1:11" x14ac:dyDescent="0.25">
       <c r="B15" t="s">
-        <v>136</v>
-      </c>
-    </row>
-    <row r="16" spans="1:7">
+        <v>153</v>
+      </c>
+      <c r="C15" t="s">
+        <v>149</v>
+      </c>
+      <c r="G15" s="2" t="e">
+        <f t="shared" si="0"/>
+        <v>#DIV/0!</v>
+      </c>
+    </row>
+    <row r="16" spans="1:11" x14ac:dyDescent="0.25">
       <c r="B16" t="s">
-        <v>137</v>
+        <v>154</v>
+      </c>
+      <c r="C16" t="s">
+        <v>149</v>
+      </c>
+      <c r="G16" s="2" t="e">
+        <f t="shared" si="0"/>
+        <v>#DIV/0!</v>
+      </c>
+    </row>
+    <row r="17" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="B17" t="s">
+        <v>155</v>
+      </c>
+      <c r="C17" t="s">
+        <v>149</v>
+      </c>
+      <c r="G17" s="2" t="e">
+        <f t="shared" si="0"/>
+        <v>#DIV/0!</v>
+      </c>
+    </row>
+    <row r="18" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="B18" t="s">
+        <v>156</v>
+      </c>
+      <c r="C18" s="1" t="s">
+        <v>157</v>
+      </c>
+      <c r="D18">
+        <v>2.02</v>
+      </c>
+      <c r="E18">
+        <v>1</v>
+      </c>
+      <c r="F18">
+        <v>1</v>
+      </c>
+      <c r="G18" s="2">
+        <f t="shared" si="0"/>
+        <v>2.02</v>
+      </c>
+      <c r="J18" t="s">
+        <v>158</v>
+      </c>
+    </row>
+    <row r="19" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="B19" t="s">
+        <v>159</v>
+      </c>
+      <c r="C19" s="1"/>
+      <c r="D19">
+        <v>3.5</v>
+      </c>
+      <c r="E19">
+        <v>1</v>
+      </c>
+      <c r="F19">
+        <v>1</v>
+      </c>
+      <c r="G19" s="2">
+        <f t="shared" si="0"/>
+        <v>3.5</v>
+      </c>
+      <c r="J19">
+        <v>22</v>
+      </c>
+    </row>
+    <row r="20" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="B20" t="s">
+        <v>2</v>
+      </c>
+      <c r="C20" s="1" t="s">
+        <v>160</v>
+      </c>
+      <c r="D20">
+        <v>7.35</v>
+      </c>
+      <c r="E20">
+        <v>2</v>
+      </c>
+      <c r="F20">
+        <v>2</v>
+      </c>
+      <c r="G20" s="2">
+        <f t="shared" si="0"/>
+        <v>7.35</v>
+      </c>
+      <c r="I20">
+        <v>22</v>
+      </c>
+    </row>
+    <row r="21" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="B21" t="s">
+        <v>161</v>
+      </c>
+      <c r="C21" s="1" t="s">
+        <v>162</v>
+      </c>
+      <c r="D21">
+        <v>2.95</v>
+      </c>
+      <c r="E21">
+        <v>2</v>
+      </c>
+      <c r="F21">
+        <v>1</v>
+      </c>
+      <c r="G21" s="2">
+        <f t="shared" si="0"/>
+        <v>5.9</v>
+      </c>
+      <c r="J21">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="22" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="B22" t="s">
+        <v>163</v>
+      </c>
+      <c r="C22" s="1" t="s">
+        <v>164</v>
+      </c>
+      <c r="D22">
+        <v>3.45</v>
+      </c>
+      <c r="E22">
+        <v>1</v>
+      </c>
+      <c r="F22">
+        <v>1</v>
+      </c>
+      <c r="G22" s="2"/>
+      <c r="J22" t="s">
+        <v>158</v>
+      </c>
+    </row>
+    <row r="23" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A23" t="s">
+        <v>165</v>
+      </c>
+      <c r="G23" s="2" t="e">
+        <f t="shared" si="0"/>
+        <v>#DIV/0!</v>
+      </c>
+    </row>
+    <row r="24" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="B24" t="s">
+        <v>166</v>
+      </c>
+      <c r="D24">
+        <v>2.4900000000000002</v>
+      </c>
+      <c r="G24" s="2" t="e">
+        <f t="shared" si="0"/>
+        <v>#DIV/0!</v>
+      </c>
+    </row>
+    <row r="25" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="B25" t="s">
+        <v>167</v>
+      </c>
+      <c r="D25">
+        <v>4.25</v>
+      </c>
+      <c r="G25" s="2" t="e">
+        <f t="shared" si="0"/>
+        <v>#DIV/0!</v>
+      </c>
+    </row>
+    <row r="26" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="B26" t="s">
+        <v>168</v>
+      </c>
+      <c r="G26" s="2" t="e">
+        <f t="shared" si="0"/>
+        <v>#DIV/0!</v>
+      </c>
+    </row>
+    <row r="27" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="B27" t="s">
+        <v>169</v>
+      </c>
+      <c r="D27">
+        <v>0.89</v>
+      </c>
+      <c r="G27" s="2" t="e">
+        <f t="shared" si="0"/>
+        <v>#DIV/0!</v>
+      </c>
+    </row>
+    <row r="28" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="B28" t="s">
+        <v>170</v>
+      </c>
+      <c r="D28">
+        <v>0.75</v>
+      </c>
+      <c r="E28">
+        <v>4</v>
+      </c>
+      <c r="F28">
+        <v>20</v>
+      </c>
+      <c r="G28" s="2">
+        <f t="shared" si="0"/>
+        <v>0.75</v>
+      </c>
+    </row>
+    <row r="29" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="B29" t="s">
+        <v>171</v>
+      </c>
+      <c r="D29">
+        <v>0.7</v>
+      </c>
+      <c r="F29">
+        <v>100</v>
+      </c>
+      <c r="G29" s="2">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="30" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="B30" t="s">
+        <v>172</v>
+      </c>
+      <c r="D30">
+        <v>0.94</v>
+      </c>
+      <c r="F30">
+        <v>10</v>
+      </c>
+      <c r="G30" s="2">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="31" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="B31" t="s">
+        <v>173</v>
+      </c>
+      <c r="D31">
+        <v>1.06</v>
+      </c>
+      <c r="F31">
+        <v>20</v>
+      </c>
+      <c r="G31" s="2">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="32" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="B32" t="s">
+        <v>174</v>
+      </c>
+      <c r="D32">
+        <v>2.19</v>
+      </c>
+      <c r="G32" s="2" t="e">
+        <f t="shared" si="0"/>
+        <v>#DIV/0!</v>
+      </c>
+    </row>
+    <row r="33" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="B33" t="s">
+        <v>175</v>
+      </c>
+      <c r="D33">
+        <v>1.21</v>
+      </c>
+      <c r="E33">
+        <v>8</v>
+      </c>
+      <c r="G33" s="2" t="e">
+        <f t="shared" si="0"/>
+        <v>#DIV/0!</v>
+      </c>
+    </row>
+    <row r="34" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="B34" t="s">
+        <v>176</v>
+      </c>
+      <c r="D34">
+        <v>1.27</v>
+      </c>
+      <c r="F34">
+        <v>10</v>
+      </c>
+      <c r="G34" s="2">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="35" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="B35" t="s">
+        <v>177</v>
+      </c>
+      <c r="C35" s="1" t="s">
+        <v>178</v>
+      </c>
+      <c r="D35">
+        <v>2.58</v>
+      </c>
+      <c r="F35">
+        <v>5</v>
+      </c>
+      <c r="G35" s="2">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="36" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="B36" t="s">
+        <v>179</v>
+      </c>
+      <c r="D36">
+        <v>3.04</v>
+      </c>
+      <c r="E36">
+        <v>2</v>
+      </c>
+      <c r="F36">
+        <v>5</v>
+      </c>
+      <c r="G36" s="2">
+        <f t="shared" si="0"/>
+        <v>3.04</v>
+      </c>
+    </row>
+    <row r="37" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A37" t="s">
+        <v>180</v>
+      </c>
+    </row>
+    <row r="38" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="B38" t="s">
+        <v>181</v>
+      </c>
+    </row>
+    <row r="39" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="B39" t="s">
+        <v>182</v>
+      </c>
+    </row>
+    <row r="40" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="B40" t="s">
+        <v>183</v>
       </c>
     </row>
   </sheetData>
   <hyperlinks>
-    <hyperlink ref="C2" r:id="rId1" xr:uid="{00000000-0004-0000-0100-000000000000}"/>
+    <hyperlink ref="C2" r:id="rId1"/>
+    <hyperlink ref="C18" r:id="rId2"/>
+    <hyperlink ref="C9" r:id="rId3"/>
+    <hyperlink ref="C10" r:id="rId4"/>
+    <hyperlink ref="C8" r:id="rId5"/>
+    <hyperlink ref="C35" r:id="rId6"/>
+    <hyperlink ref="C3" r:id="rId7"/>
+    <hyperlink ref="C20" r:id="rId8"/>
+    <hyperlink ref="C4" r:id="rId9"/>
+    <hyperlink ref="C21" r:id="rId10"/>
+    <hyperlink ref="C22" r:id="rId11"/>
   </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
